--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youss\gameBoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA5078EE-16FF-4920-9400-F0CC15BB1824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812002B9-09E5-4AD1-AB5C-5EE03545E186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{251959F0-0F70-419E-A9BE-BED0ABC76FA5}"/>
   </bookViews>
@@ -68,7 +68,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +93,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -204,11 +228,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -218,22 +257,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,293 +615,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2F3287-AA33-415E-8F0C-09B4D23F814A}">
-  <dimension ref="G12:T23"/>
+  <dimension ref="H14:W39"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="I19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" customWidth="1"/>
-    <col min="12" max="19" width="6" customWidth="1"/>
-    <col min="20" max="20" width="5.109375" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" customWidth="1"/>
+    <col min="14" max="21" width="6" customWidth="1"/>
+    <col min="22" max="22" width="5.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="7:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G14" t="s">
+    <row r="14" spans="8:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>10</v>
       </c>
-      <c r="J14" s="7">
+      <c r="L14" s="4">
         <v>320</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="7:20" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="1">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="8:22" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="1">
         <v>50</v>
       </c>
-      <c r="I15" s="6">
+      <c r="K15" s="12">
         <v>300</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="11">
+      <c r="L15" s="5"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="7">
         <v>40</v>
       </c>
-      <c r="M15" s="11">
+      <c r="O15" s="7">
         <v>41</v>
       </c>
-      <c r="N15" s="11">
+      <c r="P15" s="7">
         <v>42</v>
       </c>
-      <c r="O15" s="11">
+      <c r="Q15" s="7">
         <v>43</v>
       </c>
-      <c r="P15" s="11">
+      <c r="R15" s="7">
         <v>44</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="S15" s="7">
         <v>45</v>
       </c>
-      <c r="R15" s="11">
+      <c r="T15" s="7">
         <v>46</v>
       </c>
-      <c r="S15" s="11">
+      <c r="U15" s="7">
         <v>47</v>
       </c>
-      <c r="T15" s="5"/>
-    </row>
-    <row r="16" spans="7:20" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="1">
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="8:22" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="1">
         <v>50</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="11">
+      <c r="K16" s="12"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="7">
         <v>32</v>
       </c>
-      <c r="M16" s="11">
+      <c r="O16" s="7">
         <v>33</v>
       </c>
-      <c r="N16" s="11">
+      <c r="P16" s="7">
         <v>34</v>
       </c>
-      <c r="O16" s="11">
+      <c r="Q16" s="7">
         <v>35</v>
       </c>
-      <c r="P16" s="11">
+      <c r="R16" s="7">
         <v>36</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="S16" s="7">
         <v>37</v>
       </c>
-      <c r="R16" s="11">
+      <c r="T16" s="7">
         <v>38</v>
       </c>
-      <c r="S16" s="11">
+      <c r="U16" s="7">
         <v>39</v>
       </c>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="7:20" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="1">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="8:23" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="1">
         <v>50</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="11">
+      <c r="K17" s="12"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="7">
         <v>24</v>
       </c>
-      <c r="M17" s="11">
+      <c r="O17" s="7">
         <v>25</v>
       </c>
-      <c r="N17" s="11">
+      <c r="P17" s="7">
         <v>26</v>
       </c>
-      <c r="O17" s="11">
+      <c r="Q17" s="7">
         <v>27</v>
       </c>
-      <c r="P17" s="11">
+      <c r="R17" s="7">
         <v>28</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="S17" s="7">
         <v>29</v>
       </c>
-      <c r="R17" s="11">
+      <c r="T17" s="7">
         <v>30</v>
       </c>
-      <c r="S17" s="11">
+      <c r="U17" s="7">
         <v>31</v>
       </c>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="7:20" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="1">
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="8:23" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="1">
         <v>50</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="11">
+      <c r="K18" s="12"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="7">
         <v>16</v>
       </c>
-      <c r="M18" s="11">
+      <c r="O18" s="7">
         <v>17</v>
       </c>
-      <c r="N18" s="11">
+      <c r="P18" s="7">
         <v>18</v>
       </c>
-      <c r="O18" s="11">
+      <c r="Q18" s="7">
         <v>19</v>
       </c>
-      <c r="P18" s="11">
+      <c r="R18" s="7">
         <v>20</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="S18" s="7">
         <v>21</v>
       </c>
-      <c r="R18" s="11">
+      <c r="T18" s="7">
         <v>22</v>
       </c>
-      <c r="S18" s="11">
+      <c r="U18" s="7">
         <v>23</v>
       </c>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="7:20" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="1">
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="8:23" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="1">
         <v>50</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="11">
+      <c r="K19" s="12"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="7">
         <v>8</v>
       </c>
-      <c r="M19" s="11">
+      <c r="O19" s="7">
         <v>9</v>
       </c>
-      <c r="N19" s="11">
+      <c r="P19" s="7">
         <v>10</v>
       </c>
-      <c r="O19" s="11">
+      <c r="Q19" s="7">
         <v>11</v>
       </c>
-      <c r="P19" s="11">
+      <c r="R19" s="7">
         <v>12</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="S19" s="7">
         <v>13</v>
       </c>
-      <c r="R19" s="11">
+      <c r="T19" s="7">
         <v>14</v>
       </c>
-      <c r="S19" s="11">
+      <c r="U19" s="7">
         <v>15</v>
       </c>
-      <c r="T19" s="5"/>
-    </row>
-    <row r="20" spans="7:20" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G20">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="8:23" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20">
         <v>11000001</v>
       </c>
-      <c r="H20" s="1">
+      <c r="J20" s="1">
         <v>50</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="12">
+      <c r="K20" s="12"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="8">
         <v>0</v>
       </c>
-      <c r="M20" s="11">
+      <c r="O20" s="7">
         <v>1</v>
       </c>
-      <c r="N20" s="11">
+      <c r="P20" s="7">
         <v>2</v>
       </c>
-      <c r="O20" s="11">
+      <c r="Q20" s="7">
         <v>3</v>
       </c>
-      <c r="P20" s="11">
+      <c r="R20" s="7">
         <v>4</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="S20" s="7">
         <v>5</v>
       </c>
-      <c r="R20" s="12">
+      <c r="T20" s="8">
         <v>6</v>
       </c>
-      <c r="S20" s="12">
+      <c r="U20" s="8">
         <v>7</v>
       </c>
-      <c r="T20" s="5"/>
-    </row>
-    <row r="21" spans="7:20" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I21">
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="8:23" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K21">
         <v>10</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-    </row>
-    <row r="22" spans="7:20" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K22" s="2">
+      <c r="L21" s="6"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="8:23" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="9">
         <v>480</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="4"/>
-    </row>
-    <row r="23" spans="7:20" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K23">
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="11"/>
+    </row>
+    <row r="23" spans="8:23" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M23">
         <v>40</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>40</v>
       </c>
     </row>
+    <row r="25" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="H25" s="9">
+        <v>300</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25">
+        <v>8</v>
+      </c>
+      <c r="W25" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="H26" s="9"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26">
+        <v>7</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="H27" s="9"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27">
+        <v>6</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="H28" s="9"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28">
+        <v>5</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="H29" s="9"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29">
+        <v>4</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="H30" s="9"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="H31" s="9"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="H32" s="9"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>8</v>
+      </c>
+      <c r="M33">
+        <v>7</v>
+      </c>
+      <c r="N33">
+        <v>6</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>4</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J34" s="14">
+        <v>480</v>
+      </c>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="14"/>
+    </row>
+    <row r="35" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J35" s="16"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="16"/>
+    </row>
+    <row r="36" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+    </row>
+    <row r="37" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="K37" s="14">
+        <v>10</v>
+      </c>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+    </row>
+    <row r="39" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J39" s="18">
+        <v>12</v>
+      </c>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="I15:I20"/>
+  <mergeCells count="8">
+    <mergeCell ref="W25:W32"/>
+    <mergeCell ref="K37:T37"/>
+    <mergeCell ref="J39:U39"/>
+    <mergeCell ref="L36:S36"/>
+    <mergeCell ref="M22:V22"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="J34:U34"/>
+    <mergeCell ref="H25:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
